--- a/excel.xlsx
+++ b/excel.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -378,22 +378,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>烟草与健康</t>
+          <t>无烟环境</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://view.inews.qq.com/a/20200415A0U5FN00</t>
+          <t>http://epaper.jzrb.com/jzwb/html/2020-04/22/content_587596.htm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北京市控烟协会倡议隔离病毒远离烟草拥抱健康</t>
+          <t>年度焦作市无烟单位申报开始营造无烟环境从创建无烟单位做起</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
@@ -405,17 +405,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://liangshanqu.jiankangad.com/news/458424565.html</t>
+          <t>http://tieba.baidu.com/p/6632087187</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>梁山超低空油烟净化器目测无烟</t>
+          <t>安徽宿州家用无烟火锅桌锅锅火</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（2）</t>
         </is>
       </c>
     </row>
@@ -427,17 +427,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://tieba.baidu.com/p/6620182495</t>
+          <t>https://jcz.chinachugui.com/knowledge/20200421504345.shtml</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>洛阳本地天洛阳地塞米松元无烟检月日知情</t>
+          <t>老厨房油油腻腻厨壹堂帮你秒变无烟厨房</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（6）</t>
         </is>
       </c>
     </row>
@@ -449,12 +449,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://tieba.baidu.com/p/6620206639</t>
+          <t>https://www.toutiao.com/a6818066075779858957/</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>成都项目无烟检全国联网研究机构成都华西附二</t>
+          <t>韶山法院对吸烟说不韶山法院开启禁烟模式</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n442995402</t>
+          <t>http://3g.k.sohu.com/t/n444758210</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浙江安吉县局三色润三化全力护航无烟开学季</t>
+          <t>世界上禁烟最严的国家在家里吸烟都会被警察抓</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -493,12 +493,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://view.inews.qq.com/a/20200415A0NXA200</t>
+          <t>https://www.sohu.com/a/389953247_120661638</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>为何各国军队禁酒不禁烟只因美俄都曾吃过大亏士兵洋相出尽</t>
+          <t>世上唯一全面禁烟的国家电子烟都不让带抽烟被抓到要坐牢</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -510,61 +510,61 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>消费税</t>
+          <t>无烟环境</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://tieba.baidu.com/p/6620719268</t>
+          <t>http://mini.eastday.com/a/200421205513091.html</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天津港进口危险品是否需要缴纳消费税</t>
+          <t>景区吸烟泰山景区一登山男游客在禁烟标志前仍吸烟</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（6）</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>消费税</t>
+          <t>无烟环境</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.fx678.com/C/20200416/202004160806351305.html</t>
+          <t>http://k.sina.cn/article_1655444627_62ac14930200154l3.html</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>高级官员当前不是日本提高消费税的合适时机</t>
+          <t>网络问政贵阳市民给禁烟标识纠错部门立即撤除重制</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>（3）</t>
+          <t>（2）</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>无烟环境</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n443034140</t>
+          <t>http://www.xytyn.cn/html/20200421/764944.html</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汕头市潮阳区烟草专卖局这些业务进驻区政务服务中心</t>
+          <t>东京奥运将全面禁烟包括电子烟场馆内不设吸烟区</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -576,61 +576,61 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>消费税</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://jxsr.jxcn.cn/system/2020/04/15/018851540.shtml</t>
+          <t>https://view.inews.qq.com/a/20200421A0LNR700</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广信区烟草专卖局认真整改主题教育问题</t>
+          <t>说好的报复性买车没出现专家建议消费税后移能救市吗</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（4）</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>消费税</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.huaihua.gov.cn/huaihua/c101116/202004/3fcf84ef1efc413493f5ddeb45e17290.shtml</t>
+          <t>https://www.d1ev.com/news/shichang/114313</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>会同县烟草专卖局分公司扶贫工作队助力复工复产</t>
+          <t>中国汽车流通协会建议汽车行业消费税后移打破地方壁垒</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>（4）</t>
+          <t>（3）</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>消费税</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://epaper.lpswz.com/lpsrb/html/2020-04/16/content_461617.htm</t>
+          <t>https://www.toutiao.com/a1664576088273924/</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>六盘水市烟草专卖局公司多举措助烟农增收</t>
+          <t>月主要税收收入项目情况国内增值税亿元同比下降国内消费税</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -642,39 +642,39 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>消费税</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://epaper.lpswz.com/lpsrb/html/2020-04/16/content_461620.htm</t>
+          <t>https://k.sina.cn/article_1726918143_66eeadff02000x50x.html?ab=qiche&amp;http=fromhttp&amp;subch=oauto</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>钟山区烟草专卖局分公司多点发力促党建工作常态化</t>
+          <t>流通协会车市难有报复式增长建议消费税后移</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（9）</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>消费税</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://mini.eastday.com/a/200415133615017.html</t>
+          <t>http://3g.k.sohu.com/t/n444667399</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富平公安巡特警大队与富平县烟草专卖局分公司开展党建学习交流活动</t>
+          <t>初级经济法高频考点第四章增值税消费税法律制度上</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -686,61 +686,61 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>消费税</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://baijiahao.baidu.com/s?id=1664011043351007157&amp;wfr=spider&amp;for=pc</t>
+          <t>http://news.ecar168.cn/content/202004/2020042111491775143.htm</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>烟草行业专题报告烟草薄片是什么</t>
+          <t>车市难有报复式增长建议消费税后移</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>消费税</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://finance.sina.cn/2020-04-15/detail-iirczymi6364780.d.html</t>
+          <t>https://view.inews.qq.com/a/20200421A0M41900</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>轻工烟草系列报告二烟草薄片是什么</t>
+          <t>日本消费税从到语言学校学费不得不涨价</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>烟草专卖局</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.hngp.gov.cn/henan/content?infoId=462301&amp;channelCode=H600104</t>
+          <t>http://hlj.zggqzp.com/2020/zpgg_0421/4816_2.html</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中国烟草总公司郑州烟草研究院香料添加剂样品及样品信息收集项目公告</t>
+          <t>云南省烟草专卖局公司高校毕业生招聘公告人第二批</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -752,127 +752,127 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>烟草专卖局</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://baijiahao.baidu.com/s?id=1664010181531314055&amp;wfr=spider&amp;for=pc</t>
+          <t>http://www.tobacco.gov.cn/html/49/90055816_n.html</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>吸了半辈子的烟你可知烟草的发家史一场商人布下的骗局</t>
+          <t>云南省烟草专卖局公司年高校毕业生招聘公告第二批</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（17）</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>烟草专卖局</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://gxq.yuxi.gov.cn/zjgx/gxdt/1803444.shtml</t>
+          <t>http://3g.k.sohu.com/t/n444579597</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>省科技厅到玉溪调研烟草配套产业创新工作</t>
+          <t>云南烟草专卖局第二批招聘公告发布楚雄招人报名</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>（4）</t>
+          <t>（2）</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>烟草专卖局</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.gengfu.net/supply/show-3591816.html</t>
+          <t>http://3g.k.sohu.com/t/n444614529</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>招标云南省烟草烟叶公司年高层仓库室内刷招标</t>
+          <t>县烟草专卖局抓服务促增收</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>烟草专卖局</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.toutiao.com/a6815895788409848334/</t>
+          <t>http://www.yunyangwang.com/content/2020-04/21/content_4656144.htm</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>光明警方联合烟草局打掉一跨省生产销售假烟网络</t>
+          <t>县烟草专卖局召开烟草制品零售点合理布局听证会</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>烟草专卖局</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.bokee.net/bloggermodule/blog_viewblog.do?id=40788034</t>
+          <t>https://baijiahao.baidu.com/s?id=1664486791538202827&amp;wfr=spider&amp;for=pc</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>云南烟草国际有限公司税务咨询服务采购项目招标公告</t>
+          <t>云南烟草专卖局校招人面向这两类人好工作向你招手</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>（4）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>烟草专卖局</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n443034140</t>
+          <t>http://bj.offcn.com/html/2020/04/238443.html</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>汕头市潮阳区烟草专卖局这些业务进驻区政务服务中心</t>
+          <t>云南烟草专卖局招聘岗位表昆明</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -884,39 +884,39 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>烟草专卖局</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://view.inews.qq.com/a/20200415A0U5FN00</t>
+          <t>https://www.toutiao.com/a6818007776611009027/</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>北京市控烟协会倡议隔离病毒远离烟草拥抱健康</t>
+          <t>今年云南烟草专卖局招人了共招百余人大理有人</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>烟草专卖局</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.skxox.com/20200416/0137000411.html</t>
+          <t>https://view.inews.qq.com/a/20200421A0LPZI00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广东烟草梅州市有限公司体育活动承包服务建库招标</t>
+          <t>黎川县烟草专卖局释放烟蚜茧蜂防治蚜虫</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -928,44 +928,44 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>烟草专卖局</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=105602992</t>
+          <t>http://local.newssc.org/system/20200421/002910237.htm</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>德宏警方一天内查获起走私烟草案件打掉个走私团伙</t>
+          <t>宜宾翠屏区烟草专卖局分公司开展疫情防控安全大检查</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>（123）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>烟草专卖局</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.yidianzixun.com/article/0P8JOeA2</t>
+          <t>http://www.966599.com/a/20200421/37ecd023-3029-4aaf-9595-2556dbc2fc79.html</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>烟民该笑还是哭巴基斯坦宣布提升烟草税率抗击疫情</t>
+          <t>江北区烟草专卖局年月许可证延续情况</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
@@ -977,17 +977,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.e-jebao.com/notice/details_28319764.html</t>
+          <t>https://www.toutiao.com/a1664596516619277/</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>内蒙古产权交易中心蒙桑塔纳牌小型轿车包头市烟草公司交易公告</t>
+          <t>云南省烟草公司成立于年月云南省烟草专卖局成立于年月云南省烟草公司和云南省</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>（10）</t>
+          <t>（4）</t>
         </is>
       </c>
     </row>
@@ -999,12 +999,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.cfoodw.com/n/26484.html</t>
+          <t>http://3g.k.sohu.com/t/n444638833</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>茅台集团与福建烟草局举行座谈</t>
+          <t>全国烟草已招人待遇究竟有多好真实内幕是</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1021,17 +1021,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://tieba.baidu.com/p/6620466884</t>
+          <t>http://3g.k.sohu.com/t/n444787035</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>烟草报名倒计时福利快领取</t>
+          <t>大揭秘烟草公司工资或将超公务员有人称他金饭碗</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（4）</t>
         </is>
       </c>
     </row>
@@ -1043,12 +1043,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://epaper.lpswz.com/lpsrb/html/2020-04/16/content_461617.htm</t>
+          <t>http://www.yunyangwang.com/content/2020-04/21/content_4656144.htm</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>六盘水市烟草专卖局公司多举措助烟农增收</t>
+          <t>县烟草专卖局召开烟草制品零售点合理布局听证会</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1065,17 +1065,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://xw.qq.com/cmsid/20200415A0UFIF00</t>
+          <t>http://3g.k.sohu.com/t/n444552056</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>男子买芙蓉王口感不对质疑是假烟讨说法被殴打烟草局现场查验</t>
+          <t>烟草大佬云南云南烟草招聘人届均可报</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>（3）</t>
+          <t>（2）</t>
         </is>
       </c>
     </row>
@@ -1087,17 +1087,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://tieba.baidu.com/p/6619877919</t>
+          <t>https://zhidao.baidu.com/question/1437183711666575379.html</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>烟草电网国企事业单位医院教师街道办事处辅警地</t>
+          <t>上海新型烟草制品研究院有限公司招聘信息上海新型烟草制品研究院有限公司怎么样</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1109,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://jxsr.jxcn.cn/system/2020/04/15/018851540.shtml</t>
+          <t>http://www.yidianzixun.com/article/0PBGiV44</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>广信区烟草专卖局认真整改主题教育问题</t>
+          <t>今年云南烟草专卖局招人了共招百余人烟草福利如何</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（9）</t>
         </is>
       </c>
     </row>
@@ -1131,17 +1131,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.huaihua.gov.cn/huaihua/c101116/202004/3fcf84ef1efc413493f5ddeb45e17290.shtml</t>
+          <t>https://www.toutiao.com/a1664576140029959/</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>会同县烟草专卖局分公司扶贫工作队助力复工复产</t>
+          <t>年云南省烟草专卖局公司高校毕业生招聘人公告云南省烟草公司成立于年月</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>（4）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://epaper.lpswz.com/lpsrb/html/2020-04/16/content_461620.htm</t>
+          <t>http://www.gengfu.net/supply/show-3642061.html</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>钟山区烟草专卖局分公司多点发力促党建工作常态化</t>
+          <t>关于河南省烟草公司平顶山市公司烟草专卖执法记录仪采购项目公开招标公告</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1175,12 +1175,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://mini.eastday.com/a/200415133615017.html</t>
+          <t>http://3g.k.sohu.com/t/n444624427</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>富平公安巡特警大队与富平县烟草专卖局分公司开展党建学习交流活动</t>
+          <t>关注烟草局是公务员还是事业单位</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1197,17 +1197,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n443031578</t>
+          <t>http://3g.k.sohu.com/t/n444608390</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>劲嘉股份年业绩符合预期烟草内销韧性新业务顺利开拓</t>
+          <t>国企铁饭碗年薪的烟草会比公务员更难考</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（4）</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1219,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.hngp.gov.cn/henan/content?infoId=462301&amp;channelCode=H600104</t>
+          <t>https://www.eastobacco.com/pub/web/dfycb/202004/t20200422_564747.html</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中国烟草总公司郑州烟草研究院香料添加剂样品及样品信息收集项目公告</t>
+          <t>中国烟草总公司山东省公司烟草农业综合标准体系修订版发布</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1241,12 +1241,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.hngp.gov.cn/henan/content?infoId=462301&amp;channelCode=H600104</t>
+          <t>http://zhaotong.offcn.com/html/2020/04/24779.html</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中国烟草总公司郑州烟草研究院香料添加剂样品及样品信息收集项目公告</t>
+          <t>云南烟草备考大礼包基础带你备考烟草</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1258,39 +1258,39 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>电子烟</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n442916030</t>
+          <t>http://www.chinabidding.cn/zbgs/UCgsn.html</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>年中国电子烟行业市场运行监测报告</t>
+          <t>云南省烟草公司普洱市公司年度烟草农药采购项目标包竞争性谈判成交候选人公示</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>（7）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>电子烟</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n442924807</t>
+          <t>http://bj.offcn.com/html/2020/04/238443.html</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>警惕网上贩卖的这种上头电子烟竟是新型毒品</t>
+          <t>云南烟草专卖局招聘岗位表昆明</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1302,83 +1302,83 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>电子烟</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=105632935</t>
+          <t>https://view.inews.qq.com/a/20200421A0SBA300</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>小伙吸食电子烟成瘾意识模糊烟油里竟含有合成大麻素</t>
+          <t>云南省烟草系统招聘人不要错过</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（8）</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>电子烟</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n442851320</t>
+          <t>https://www.sohu.com/a/390035602_404720</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>受邀参与新西兰菲律宾议会电子烟立法悦刻都说了啥</t>
+          <t>工作难找怎么不来试试考烟草预计招聘</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>（14）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>电子烟</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://ishare.ifeng.com/c/s/v004UaWhvZgFvGiL8Mwer4UuBh73ImlQeAZaN9B3tw75GCg__?spss=np</t>
+          <t>http://hlj.zggqzp.com/2020/zpgg_0421/4816_2.html</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>电子烟通配烟弹末日来临赢了三家深圳厂商被禁入美国</t>
+          <t>云南省烟草专卖局公司高校毕业生招聘公告人第二批</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>（6）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>电子烟</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://view.inews.qq.com/a/20200415A0JLOL00</t>
+          <t>http://www.ebnew.com/businessShow/644879177.html</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>尼古丁电子烟也会导致肺癌</t>
+          <t>四川省烟草公司宜宾市公司年市内网络通信服务备用线路租赁服务招标公告</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1390,17 +1390,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>电子烟</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://report.iimedia.cn/repo2-0/39053.html</t>
+          <t>http://3g.k.sohu.com/t/n444766167</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>艾媒报告年中国电子烟行业市场运行监测报告</t>
+          <t>好消息云南烟草招聘如约而至啦应往届皆可报</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1412,193 +1412,193 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>烟草走私</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=105602992</t>
+          <t>http://www.skxox.com/20200422/0126036836.html</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>德宏警方一天内查获起走私烟草案件打掉个走私团伙</t>
+          <t>云南省烟草公司昭通市公司年年展板标识标牌印刷制品设计制作服</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>（123）</t>
+          <t>（4）</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>打击假烟</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://k.sina.cn/article_1653603955_v628ffe7302000vchb.html</t>
+          <t>http://www.skxox.com/20200421/1753570870.html</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>岁老辅警死盯天查获假烟万余条镇江侦破特大销售伪劣香烟案</t>
+          <t>吉林烟草工业有限责任公司年度税务师事务所选择招标公告</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（3）</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>打击假烟</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://k.sina.cn/article_1831059072_6d23be8002000obq6.html</t>
+          <t>https://baijiahao.baidu.com/s?id=1664486791538202827&amp;wfr=spider&amp;for=pc</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>特大跨国假烟案侦破记</t>
+          <t>云南烟草专卖局校招人面向这两类人好工作向你招手</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>打击假烟</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://news.025ct.com/shehuixinwen/601404.html</t>
+          <t>http://ln.zggqzp.com/2020/ksst_0421/6741.html</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>辅警扮渔夫连钓天收获特大假烟案关键证据</t>
+          <t>烟草申论范文诚以养德信以立身诚信体系建设助力诚信中国</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>（4）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>打击假烟</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n442904407</t>
+          <t>https://www.sohu.com/a/389671868_120093770</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>条假烟小榄警方接连破获两起非法经营案</t>
+          <t>中科大唯一合并的高校学生毕业就进烟草局强烈反对被合并</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>（5）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>打击假烟</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=105495505</t>
+          <t>http://3g.k.sohu.com/t/n444579597</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>治庸铁军龙陵公安民警夜查假烟案贩私套路让人惊讶</t>
+          <t>云南烟草专卖局第二批招聘公告发布楚雄招人报名</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>（4）</t>
+          <t>（2）</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>打击假烟</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://baijiahao.baidu.com/s?id=1664024631456154580&amp;wfr=spider&amp;for=pc</t>
+          <t>http://3g.k.sohu.com/t/n444614529</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>男子买芙蓉王口感不对质疑是假烟讨说法被殴打烟草局现场查验</t>
+          <t>县烟草专卖局抓服务促增收</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>（3）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>打击假烟</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n442935994</t>
+          <t>http://www.yidianzixun.com/article/0PB27Txz</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>民警化身渔夫蹲守天晒成阴阳脸查获假烟万余条</t>
+          <t>重磅消息云南烟草招聘出了</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（2）</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>打击假烟</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n443001470</t>
+          <t>http://www.skxox.com/20200421/1754150876.html</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>民警假扮渔夫钓鱼天查假烟把这辈子的鱼都钓完了</t>
+          <t>湖南省烟草公司永州市公司蓝山县分公司土市烟叶收购站除尘降温通风系统采购安装项目采</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1610,88 +1610,1122 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>打击假烟</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://k.sina.cn/article_1653603955_628ffe7304000vcgy.html</t>
+          <t>http://www.chinabidding.com/bidDetail/244243656.html</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>民警为查假烟化身渔夫蹲守天把这辈子的鱼都钓完了</t>
+          <t>湖南省烟草公司湘西自治州公司资产评估机构服务采购项目招标公告</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（5）</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>文明行为促进条例</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n442863447</t>
+          <t>http://mini.eastday.com/a/200422071059055.html</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>荆门市文明行为促进条例您有哪些金点子</t>
+          <t>四川烟草商业系统干部职工捐款近万元深耕定点帮扶责任田</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>（3）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>文明行为促进条例</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.toutiao.com/a6815909284199531021/</t>
+          <t>http://www.gengfu.net/supply/show-3644958.html</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>淄博市文明行为促进条例</t>
+          <t>公示青海省烟草公司玉树州公司年年机动车辆定点维修服务项目公开招标公告</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>http://www.tobacco.gov.cn/html/49/90055885_n.html</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>四川省烟草公司内江市公司保安服务采购项目第二次招标公告</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>http://3g.k.sohu.com/t/n444621234</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>贵州烟草笔试试题坚持才会赢取胜利</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>（2）</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.sohu.com/a/389753132_818221</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>烟草文化火花上的春忙季</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=106835189</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>郑州查获一起非法经营烟草制品案涉案多万元</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.douban.com/group/topic/172454559/</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招聘烟草公司行政</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>（5）</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://view.inews.qq.com/a/20200421A0LPZI00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>黎川县烟草专卖局释放烟蚜茧蜂防治蚜虫</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>http://local.newssc.org/system/20200421/002910237.htm</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>宜宾翠屏区烟草专卖局分公司开展疫情防控安全大检查</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.toutiao.com/a1664563988275207/</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中国最赚钱的公司前名没有一家民企第一名烟草总公司亿元第二名工商银行</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>（2）</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.toutiao.com/a1664550584614919/</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中国最赚钱的公司阿里只排第位第一名烟草总公司亿元第二名工商银行</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>（2）</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.douban.com/group/topic/172374631/</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>烟草公司招聘行政</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>（6）</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.toutiao.com/a6818084478238327299/</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>如果没有烟草肺癌将会是一种罕见癌症</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>（4）</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>http://www.966599.com/a/20200421/37ecd023-3029-4aaf-9595-2556dbc2fc79.html</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>江北区烟草专卖局年月许可证延续情况</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>http://www.gengfu.net/com/zhao08/news/itemid-14973407.html</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招标山东青岛烟草有限公司物流中心物资采购项目招标公告</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>http://3g.k.sohu.com/t/n444802290</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>湖南烟草面试技巧浅谈面试哲理故事题的作答思路</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>http://3g.k.sohu.com/t/n444804038</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>湖南烟草面试技巧人际题目避免套路化的三个作答技能</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>http://www.ebnew.com/businessShow/644890403.html</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>山西省烟草公司大同市公司招标代理机构更新项目不分标段招标变更公告</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://view.inews.qq.com/a/20200421V0FL3X00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>试问闲愁都几许一川烟草满城风絮梅子黄时雨</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/389492468/answer/1169950469</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>调剂到轻工技术与工程专业读研方向阻燃纸不想去纸厂考公百分九十受限去烟草厂也希望渺茫活着干嘛</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>http://cq.tobacco.gov.cn/a/20200422/3addc926-5f01-4876-a2c4-5489afacaaef.html</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中国烟草总公司重庆市公司永川分公司食堂服务业务外包项目招标公告</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.eastobacco.com/pub/web/dfycb/202004/t20200422_564747.html</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中国烟草总公司山东省公司烟草农业综合标准体系修订版发布</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>烟草业/公司情况</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>http://www.tobacco.gov.cn/html/49/90055811_n.html</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中国烟草总公司四川省公司年全省烤房设备维修更换采购项目中标候选人公示</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/353238650/answer/1170179986</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>关于电子烟大家抽电子烟时间久了会不会感觉到胸闷心脏疼心慌</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.iimedia.cn/c1061/70959.html</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>电子烟行业数据分析年中国用户在选购电子烟时看重口感的占比</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/4375159485/147492909</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中国电子烟行业发展现状销售渠道及趋势分析</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.toutiao.com/a6818080986916454916/</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>网上贩卖的这种上头电子烟竟是新型毒品</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>（2）</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=106847515</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>警惕网上贩卖的这种上头电子烟竟是新类型毒品</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>（10）</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>http://zj.ifeng.com/a/20200422/14195714_0.shtml</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>维刻电子烟奉守健康安全是第一要则</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>（5）</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://view.inews.qq.com/a/20200422A072RX00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>旗下电子烟品牌让一部分人先酷起来</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>（7）</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.sohu.com/a/389953247_120661638</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>世上唯一全面禁烟的国家电子烟都不让带抽烟被抓到要坐牢</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.douban.com/group/topic/172474245/</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>电子烟各品牌测评</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>http://3g.k.sohu.com/t/n444622457</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>投资者提问从马桶到电子烟到消毒灯网上销售看起来都乏善可陈不知公司是否</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/379582018/answer/1170406118</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>什么电子烟比较好</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/380757758/answer/1170813154</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>网上不能购买电子烟了烟油去哪买</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/388586962/answer/1168470942</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>有哪些适合女生的电子烟和微商推荐</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.douban.com/group/topic/172475356/</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>亲测有效电子烟替烟多家品牌测评目前已戒烟</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>（2）</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/388157140/answer/1170813461</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>现在还有渠道购买电子烟吗</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>（3）</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/387139663/answer/1169025959</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>你平时会用电子烟吗</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/388380809/answer/1169047258</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>有没有靠谱电子烟微商呀</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/381290034/answer/1171476301</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>想卖电子烟不知道什么牌子比较好卖</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/379050389/answer/1170803008</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>兄弟们我想问一下有什么比较好抽的电子烟可以推荐一下么</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>（2）</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>http://www.xytyn.cn/html/20200421/764944.html</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>东京奥运将全面禁烟包括电子烟场馆内不设吸烟区</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>电子烟</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/389632407/answer/1171232160</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>请问下电子烟顾客怎么寻找线下线上都行一旦采纳必献红包谢谢各位大佬</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>打击假烟</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://www.toutiao.com/a6818357097944580620/</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>姑苏警方捣毁一处假烟销售窝点查获假烟条</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>（3）</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>打击假烟</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://view.inews.qq.com/a/20200421A0R26R00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中山东升警方速破万元假烟案</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>（2）</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>打击假烟</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://view.inews.qq.com/a/20200421V0MCG500</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>小卖铺真香烟离奇变假烟视频拍下头盔男全程掉包计</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>（2）</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
           <t>文明行为促进条例</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>http://3g.k.sohu.com/t/n442943228</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>张家界市文明行为促进条例时刻行第四期景区文明行为</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>（2）</t>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>http://3g.k.sohu.com/t/n444699119</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>关于征求哈密市文明行为促进条例草案修改意见的公告</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>文明行为促进条例</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>http://mini.eastday.com/a/200422014250011.html</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>九江市文明行为促进条例草案征求意见</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>（1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>文明行为促进条例</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=106963623</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>淮阳区公安局开展周口市文明行为促进条例立法问卷调查活动</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>（3）</t>
         </is>
       </c>
     </row>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -378,17 +378,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>无烟环境</t>
+          <t>烟草与健康</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://epaper.jzrb.com/jzwb/html/2020-04/22/content_587596.htm</t>
+          <t>http://h5.cp.cashtoutiao.com/m/news/detail?id=20287336</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>年度焦作市无烟单位申报开始营造无烟环境从创建无烟单位做起</t>
+          <t>图话健康别让烟草毁了你这些肺话要听听</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -405,17 +405,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://tieba.baidu.com/p/6632087187</t>
+          <t>http://3g.k.sohu.com/t/n450596251</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安徽宿州家用无烟火锅桌锅锅火</t>
+          <t>匠心领创健康生活华帝智感恒吸油烟机新体验助力静享无烟厨房</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
@@ -427,12 +427,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://jcz.chinachugui.com/knowledge/20200421504345.shtml</t>
+          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=111908043</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>老厨房油油腻腻厨壹堂帮你秒变无烟厨房</t>
+          <t>临猗县全面禁烟重要通告</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -449,12 +449,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.toutiao.com/a6818066075779858957/</t>
+          <t>http://www.ljsanitary.com/news/jiaoyu/article-1984926.html</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>韶山法院对吸烟说不韶山法院开启禁烟模式</t>
+          <t>为保护空气质量米兰有望立法年后城区全面禁烟</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n444758210</t>
+          <t>http://www.zhihu.com/question/23202406/answer/1221488853</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>世界上禁烟最严的国家在家里吸烟都会被警察抓</t>
+          <t>中国禁烟为何鲜有成效</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -488,17 +488,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>无烟环境</t>
+          <t>烟草价格和税收</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.sohu.com/a/389953247_120661638</t>
+          <t>http://www.ljsanitary.com/news/guoji/article-2200987.html</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>世上唯一全面禁烟的国家电子烟都不让带抽烟被抓到要坐牢</t>
+          <t>意大利再次调涨烟草价格每包香烟加价至欧分</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -510,61 +510,61 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>无烟环境</t>
+          <t>烟草价格和税收</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://mini.eastday.com/a/200421205513091.html</t>
+          <t>https://www.vapejoin.com/mobile/news/202005/14/20753.html</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景区吸烟泰山景区一登山男游客在禁烟标志前仍吸烟</t>
+          <t>越南低价格烟草制品政策导致非法贸易量增加</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>（6）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>无烟环境</t>
+          <t>消费税</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://k.sina.cn/article_1655444627_62ac14930200154l3.html</t>
+          <t>http://www.gz-boly.com/classify/caijing/1641779.html</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>网络问政贵阳市民给禁烟标识纠错部门立即撤除重制</t>
+          <t>万亿消费税立法税负水平总体不变烟酒不用多交税</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>无烟环境</t>
+          <t>消费税</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.xytyn.cn/html/20200421/764944.html</t>
+          <t>http://www.ljsanitary.com/news/jiaoyu/article-1877836.html</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东京奥运将全面禁烟包括电子烟场馆内不设吸烟区</t>
+          <t>消费税立法在即推动经济发展方式加速转变</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -581,166 +581,166 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://view.inews.qq.com/a/20200421A0LNR700</t>
+          <t>http://www.ljsanitary.com/news/jiaoyu/article-2246286.html</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>说好的报复性买车没出现专家建议消费税后移能救市吗</t>
+          <t>财政部力争年内完成增值税法消费税法等起草工作</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>（4）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>消费税</t>
+          <t>烟草专卖局</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.d1ev.com/news/shichang/114313</t>
+          <t>http://3g.k.sohu.com/t/n450595037</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中国汽车流通协会建议汽车行业消费税后移打破地方壁垒</t>
+          <t>年蚌埠市烟草专卖局公司招聘工作人员人公告</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>（3）</t>
+          <t>（5）</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>消费税</t>
+          <t>烟草专卖局</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.toutiao.com/a1664576088273924/</t>
+          <t>http://www.eastobacco.com/zxbk/jryw/202005/t20200514_567351.html</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>月主要税收收入项目情况国内增值税亿元同比下降国内消费税</t>
+          <t>中央第三巡视组巡视国家烟草专卖局党组工作动员会召开</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（10）</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>消费税</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://k.sina.cn/article_1726918143_66eeadff02000x50x.html?ab=qiche&amp;http=fromhttp&amp;subch=oauto</t>
+          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=111895646</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>流通协会车市难有报复式增长建议消费税后移</t>
+          <t>内蒙古烟草招聘人巴彦淖尔市招聘人应往届均可</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>（9）</t>
+          <t>（2）</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>消费税</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n444667399</t>
+          <t>http://3g.k.sohu.com/t/n450764768</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>初级经济法高频考点第四章增值税消费税法律制度上</t>
+          <t>奥驰亚新任吉福德满意核心烟草业务失望投资电子烟</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（3）</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>消费税</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://news.ecar168.cn/content/202004/2020042111491775143.htm</t>
+          <t>http://bj.huatu.com/fujian/2020/0514/929886.html</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>车市难有报复式增长建议消费税后移</t>
+          <t>年福建烟草招聘笔试内容面试地点</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（3）</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>消费税</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://view.inews.qq.com/a/20200421A0M41900</t>
+          <t>http://bj.huatu.com/fujian/2020/0514/929894.html</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>日本消费税从到语言学校学费不得不涨价</t>
+          <t>年福建烟草招聘招聘简章笔试时间</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（11）</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://hlj.zggqzp.com/2020/zpgg_0421/4816_2.html</t>
+          <t>http://www.ljsanitary.com/news/guoji/article-2200987.html</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>云南省烟草专卖局公司高校毕业生招聘公告人第二批</t>
+          <t>意大利再次调涨烟草价格每包香烟加价至欧分</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -752,127 +752,127 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.tobacco.gov.cn/html/49/90055816_n.html</t>
+          <t>http://3g.k.sohu.com/t/n450576850</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>云南省烟草专卖局公司年高校毕业生招聘公告第二批</t>
+          <t>秦皇岛烟草机械招人届速来报名截至号</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>（17）</t>
+          <t>（3）</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n444579597</t>
+          <t>https://wjjjx.ahnu.edu.cn/info/1022/2630.htm</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>云南烟草专卖局第二批招聘公告发布楚雄招人报名</t>
+          <t>安徽省烟草专卖局公司所属单位招聘简章</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（5）</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n444614529</t>
+          <t>http://3g.k.sohu.com/t/n450616617</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>县烟草专卖局抓服务促增收</t>
+          <t>安徽烟草局统一招聘面试考试形式是什么</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（7）</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.yunyangwang.com/content/2020-04/21/content_4656144.htm</t>
+          <t>http://bj.huatu.com/fujian/2020/0514/929879.html</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>县烟草专卖局召开烟草制品零售点合理布局听证会</t>
+          <t>年福建烟草招聘笔试科目面试方式</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（3）</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://baijiahao.baidu.com/s?id=1664486791538202827&amp;wfr=spider&amp;for=pc</t>
+          <t>http://www.gx.xinhuanet.com/gxzw/2020-05/14/c_1125982845.htm</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>云南烟草专卖局校招人面向这两类人好工作向你招手</t>
+          <t>陈武调研烟草产业转型发展</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（3）</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://bj.offcn.com/html/2020/04/238443.html</t>
+          <t>http://3g.k.sohu.com/t/n450757876</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>云南烟草专卖局招聘岗位表昆明</t>
+          <t>福建省公安烟草部门年驻点云霄联合卷烟打假行动正式启动</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -884,17 +884,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.toutiao.com/a6818007776611009027/</t>
+          <t>https://www.vapejoin.com/mobile/news/202005/14/20753.html</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>今年云南烟草专卖局招人了共招百余人大理有人</t>
+          <t>越南低价格烟草制品政策导致非法贸易量增加</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -906,17 +906,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://view.inews.qq.com/a/20200421A0LPZI00</t>
+          <t>http://www.ljsanitary.com/news/guoji/article-2240752.html</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>黎川县烟草专卖局释放烟蚜茧蜂防治蚜虫</t>
+          <t>法国人去烟草店交罚款预计月日可覆盖全法</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -928,17 +928,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://local.newssc.org/system/20200421/002910237.htm</t>
+          <t>http://t.cj.sina.cn/articles/view/5506048871/1482fa36700100tjmn</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>宜宾翠屏区烟草专卖局分公司开展疫情防控安全大检查</t>
+          <t>美国将调查英美烟草对菲莫国际和奥驰亚的电子烟侵权投诉</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -950,22 +950,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>烟草专卖局</t>
+          <t>烟草业/公司情况</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.966599.com/a/20200421/37ecd023-3029-4aaf-9595-2556dbc2fc79.html</t>
+          <t>http://epaper.qjrb.cn/html/2020-05/15/content_165459.htm</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>江北区烟草专卖局年月许可证延续情况</t>
+          <t>水肥一体化智慧烟草生产</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（2）</t>
         </is>
       </c>
     </row>
@@ -977,12 +977,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.toutiao.com/a1664596516619277/</t>
+          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=111887857</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>云南省烟草公司成立于年月云南省烟草专卖局成立于年月云南省烟草公司和云南省</t>
+          <t>扩招近期烟草招聘约人你准备好了吗</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -999,17 +999,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n444638833</t>
+          <t>http://sh.zggqzp.com/2020/bkzd_0514/5086.html</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>全国烟草已招人待遇究竟有多好真实内幕是</t>
+          <t>上海烟草招聘申论热点农村电商发展亟待突破堵点</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（5）</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1021,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n444787035</t>
+          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=111780098</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>大揭秘烟草公司工资或将超公务员有人称他金饭碗</t>
+          <t>招聘辽宁省内民政局烟草警察急招人五险一金待遇优厚</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>（4）</t>
+          <t>（3）</t>
         </is>
       </c>
     </row>
@@ -1043,12 +1043,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.yunyangwang.com/content/2020-04/21/content_4656144.htm</t>
+          <t>http://www.bokee.net/company/weblog_viewEntry/41825045.html</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>县烟草专卖局召开烟草制品零售点合理布局听证会</t>
+          <t>浙江烟草财务共享系统建设项目招标公告</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1065,17 +1065,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n444552056</t>
+          <t>http://3g.k.sohu.com/t/n450575366</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>烟草大佬云南云南烟草招聘人届均可报</t>
+          <t>意关注烟草店五金店文具店也将出售低价口罩销售点将达万个</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://zhidao.baidu.com/question/1437183711666575379.html</t>
+          <t>https://www.eastobacco.com/sypd/xdwl/202005/t20200514_567286.html</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上海新型烟草制品研究院有限公司招聘信息上海新型烟草制品研究院有限公司怎么样</t>
+          <t>南平烟草物流开展烟叶储运设备自主养护工作</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1109,17 +1109,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.yidianzixun.com/article/0PBGiV44</t>
+          <t>http://finance.eastmoney.com/news/1355,202005141485504278.html</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>今年云南烟草专卖局招人了共招百余人烟草福利如何</t>
+          <t>云南丽江市烟草公司华坪县分公司多措并举促烟苗移栽</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>（9）</t>
+          <t>（3）</t>
         </is>
       </c>
     </row>
@@ -1131,12 +1131,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.toutiao.com/a1664576140029959/</t>
+          <t>http://www.yueyang.gov.cn/ztxx/31615/31616/31633/31748/31758/content_1699149.html</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>年云南省烟草专卖局公司高校毕业生招聘人公告云南省烟草公司成立于年月</t>
+          <t>湖南省烟草公司岳阳市公司年度全市系统消防器材设备设施采购项目变更公告</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.gengfu.net/supply/show-3642061.html</t>
+          <t>http://www.zhihu.com/question/345470772/answer/1223268494</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>关于河南省烟草公司平顶山市公司烟草专卖执法记录仪采购项目公开招标公告</t>
+          <t>是选择四线城市的市烟草局还是选择新一线城市的民企</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1175,17 +1175,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n444624427</t>
+          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=111917087</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>关注烟草局是公务员还是事业单位</t>
+          <t>靖西全市烟草种植面积达万亩全年产值可达到亿元以上</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（4）</t>
         </is>
       </c>
     </row>
@@ -1197,17 +1197,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n444608390</t>
+          <t>https://3g.163.com/news/article/FCIT75C805189R2M.html</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>国企铁饭碗年薪的烟草会比公务员更难考</t>
+          <t>澳门赌亨洗米华入局古巴雪茄帝国烟草雪茄部买家浮出水面</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>（4）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1219,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.eastobacco.com/pub/web/dfycb/202004/t20200422_564747.html</t>
+          <t>http://www.zhihu.com/question/371667634/answer/1221912609</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中国烟草总公司山东省公司烟草农业综合标准体系修订版发布</t>
+          <t>进烟草公司怎么样女生</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1241,12 +1241,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://zhaotong.offcn.com/html/2020/04/24779.html</t>
+          <t>http://www.tobacco.gov.cn/html/49/90149509_n.html</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>云南烟草备考大礼包基础带你备考烟草</t>
+          <t>四川省烟草公司凉山州公司年烟点信息环境配套改造项目综合布线服务项目招标公告</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.chinabidding.cn/zbgs/UCgsn.html</t>
+          <t>http://www.tobacco.gov.cn/html/49/90149473_n.html</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>云南省烟草公司普洱市公司年度烟草农药采购项目标包竞争性谈判成交候选人公示</t>
+          <t>河北白沙烟草有限责任公司套卷接机组刀盘维修项目招标公告</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（2）</t>
         </is>
       </c>
     </row>
@@ -1285,12 +1285,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://bj.offcn.com/html/2020/04/238443.html</t>
+          <t>http://tieba.baidu.com/p/6680838590</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>云南烟草专卖局招聘岗位表昆明</t>
+          <t>浙江烟草社招人不限专业应往届可报退伍军人大专即可</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1307,17 +1307,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://view.inews.qq.com/a/20200421A0SBA300</t>
+          <t>http://www.ccgp.gov.cn/cggg/dfgg/gzgg/202005/t20200515_14298710.htm</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>云南省烟草系统招聘人不要错过</t>
+          <t>辽宁省烟草公司营口市公司大石桥市局年年车辆维修定点供应商项目更正公告</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>（8）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
@@ -1329,12 +1329,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.sohu.com/a/390035602_404720</t>
+          <t>http://3g.k.sohu.com/t/n450613061</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>工作难找怎么不来试试考烟草预计招聘</t>
+          <t>贵州烟草笔试备考逻辑判断试题一掌握做题技巧</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1351,12 +1351,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://hlj.zggqzp.com/2020/zpgg_0421/4816_2.html</t>
+          <t>http://www.chinabidding.cn/zbgg/Un2ai.html</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>云南省烟草专卖局公司高校毕业生招聘公告人第二批</t>
+          <t>红云红河烟草集团有限责任公司曲靖卷烟厂年打叶复烤易地技术改造及新建烟叶仓库保安服务招标公告</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1373,17 +1373,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.ebnew.com/businessShow/644879177.html</t>
+          <t>http://www.eastobacco.com/gyyd/dtxw/202005/t20200515_567380.html</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>四川省烟草公司宜宾市公司年市内网络通信服务备用线路租赁服务招标公告</t>
+          <t>东方烟草网</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（3）</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n444766167</t>
+          <t>http://www.zhihu.com/question/67903407/answer/1221168568</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>好消息云南烟草招聘如约而至啦应往届皆可报</t>
+          <t>如何在网上找稳定的烟草商</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1417,17 +1417,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.skxox.com/20200422/0126036836.html</t>
+          <t>http://h5.cp.cashtoutiao.com/m/news/detail?id=20287336</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>云南省烟草公司昭通市公司年年展板标识标牌印刷制品设计制作服</t>
+          <t>图话健康别让烟草毁了你这些肺话要听听</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>（4）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
@@ -1439,78 +1439,78 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.skxox.com/20200421/1753570870.html</t>
+          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=111843723</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>吉林烟草工业有限责任公司年度税务师事务所选择招标公告</t>
+          <t>突发阳春烟草局面前一奔驰撞倒三台摩托车和一小车造成大酒店各方向大塞请绕行</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>（3）</t>
+          <t>（223）</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://baijiahao.baidu.com/s?id=1664486791538202827&amp;wfr=spider&amp;for=pc</t>
+          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=111781195</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>云南烟草专卖局校招人面向这两类人好工作向你招手</t>
+          <t>美国年开始售卖电子烟为何去年暴发电子烟疾病</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（38）</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://ln.zggqzp.com/2020/ksst_0421/6741.html</t>
+          <t>http://www.szsalud.com/news/wenda/3436.html</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>烟草申论范文诚以养德信以立身诚信体系建设助力诚信中国</t>
+          <t>独家视频丨美国年开始售卖电子烟为何电子烟疾</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（5）</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.sohu.com/a/389671868_120093770</t>
+          <t>http://www.ksqdhs.com/a/hot/1670217.html</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中科大唯一合并的高校学生毕业就进烟草局强烈反对被合并</t>
+          <t>法制日报像管理卷烟一样管理电子烟</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1522,171 +1522,171 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n444579597</t>
+          <t>http://view.inews.qq.com/a/20200514A0EGBR00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>云南烟草专卖局第二批招聘公告发布楚雄招人报名</t>
+          <t>后疫情时期电子烟行业的活下去共识</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（3）</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n444614529</t>
+          <t>http://xueqiu.com/1215531233/149379194</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>县烟草专卖局抓服务促增收</t>
+          <t>加拿大电子烟的青少年用户两年内翻一番纽约州议会建议提高香烟税</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（2）</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.yidianzixun.com/article/0PB27Txz</t>
+          <t>http://www.zhihu.com/question/394892687/answer/1223698877</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>重磅消息云南烟草招聘出了</t>
+          <t>有没有靠谱推荐的电子烟微商</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.skxox.com/20200421/1754150876.html</t>
+          <t>http://www.ljsanitary.com/news/guoji/article-2266850.html</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>湖南省烟草公司永州市公司蓝山县分公司土市烟叶收购站除尘降温通风系统采购安装项目采</t>
+          <t>菲律宾将全面禁止在全国公共场所吸电子烟</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（2）</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.chinabidding.com/bidDetail/244243656.html</t>
+          <t>http://news.haiwainet.cn/n/2020/0515/c3541083-31790680.html</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>湖南省烟草公司湘西自治州公司资产评估机构服务采购项目招标公告</t>
+          <t>央视扒美国疫情九大真相去年电子烟疾病真相至今未公布</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>（5）</t>
+          <t>（3）</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://mini.eastday.com/a/200422071059055.html</t>
+          <t>http://3g.k.sohu.com/t/n450764768</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>四川烟草商业系统干部职工捐款近万元深耕定点帮扶责任田</t>
+          <t>奥驰亚新任吉福德满意核心烟草业务失望投资电子烟</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（3）</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.gengfu.net/supply/show-3644958.html</t>
+          <t>http://www.dx-job.com/showjz.asp?id=1300399</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>公示青海省烟草公司玉树州公司年年机动车辆定点维修服务项目公开招标公告</t>
+          <t>包装电子烟产品元小时长白班不体检</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（2）</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.tobacco.gov.cn/html/49/90055885_n.html</t>
+          <t>http://view.inews.qq.com/a/20200514A06L8F00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>四川省烟草公司内江市公司保安服务采购项目第二次招标公告</t>
+          <t>最新电子烟外贸订单回归全球超个国家解封英法德意美加新西兰南非等等</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1698,17 +1698,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n444621234</t>
+          <t>http://www.tobaccochina.com/guoji/kuaguogs/20205/2020514165219_803298.shtml</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>贵州烟草笔试试题坚持才会赢取胜利</t>
+          <t>美国将调查对和奥驰亚的电子烟侵权诉讼</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1720,17 +1720,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.sohu.com/a/389753132_818221</t>
+          <t>http://www.zhihu.com/question/379582018/answer/1222027377</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>烟草文化火花上的春忙季</t>
+          <t>什么电子烟比较好</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1742,83 +1742,83 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>打击假烟</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=106835189</t>
+          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=111830333</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>郑州查获一起非法经营烟草制品案涉案多万元</t>
+          <t>龙门公安破获万元假烟案</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（5）</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>打击假烟</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.douban.com/group/topic/172454559/</t>
+          <t>http://3g.k.sohu.com/t/n450728865</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>招聘烟草公司行政</t>
+          <t>陇田假烟案</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>（5）</t>
+          <t>（11）</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>打击假烟</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://view.inews.qq.com/a/20200421A0LPZI00</t>
+          <t>http://k.sina.cn/article_1652484947_627eeb5302000y82b.html</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>黎川县烟草专卖局释放烟蚜茧蜂防治蚜虫</t>
+          <t>争抢假烟三车在高速逆行引发事故</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（4）</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>打击假烟</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://local.newssc.org/system/20200421/002910237.htm</t>
+          <t>http://news.sina.cn/gn/2020-05-14/detail-iircuyvi3004086.d.html</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>宜宾翠屏区烟草专卖局分公司开展疫情防控安全大检查</t>
+          <t>兄弟俩用调包术实施诈骗买真烟后调包成假烟退回</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1830,17 +1830,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>打击假烟</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.toutiao.com/a1664563988275207/</t>
+          <t>http://k.sina.cn/article_1655444627_62ac14930200180i2.html</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中国最赚钱的公司前名没有一家民企第一名烟草总公司亿元第二名工商银行</t>
+          <t>案值近万元南宁海关查获一批走私假烟</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1852,83 +1852,83 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>打击假烟</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.toutiao.com/a1664550584614919/</t>
+          <t>http://www.yidianzixun.com/article/V_08GncwvH</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中国最赚钱的公司阿里只排第位第一名烟草总公司亿元第二名工商银行</t>
+          <t>晓宇说交通上饶查无证驾驶查处多条假烟</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>（2）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>爱国卫生条例</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.douban.com/group/topic/172374631/</t>
+          <t>http://www.yjsrd.gov.cn/dbgz/html/?l=l939.html</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>烟草公司招聘行政</t>
+          <t>市人大常委会开展爱国卫生条例执法检查</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>（6）</t>
+          <t>（2）</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>文明行为促进条例</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.toutiao.com/a6818084478238327299/</t>
+          <t>https://www.thepaper.cn/newsDetail_forward_7396186</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>如果没有烟草肺癌将会是一种罕见癌症</t>
+          <t>广而告之丨黑河市文明行为促进条例草案征求意见稿公开征求意见</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>（4）</t>
+          <t>（1）</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>文明行为促进条例</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.966599.com/a/20200421/37ecd023-3029-4aaf-9595-2556dbc2fc79.html</t>
+          <t>https://www.sohu.com/a/395184498_100109390</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>江北区烟草专卖局年月许可证延续情况</t>
+          <t>娄底市文明行为促进条例草案立法调研住建人防系统专场座谈会召开</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1940,17 +1940,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>文明行为促进条例</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.gengfu.net/com/zhao08/news/itemid-14973407.html</t>
+          <t>http://3g.k.sohu.com/t/n450852762</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>招标山东青岛烟草有限公司物流中心物资采购项目招标公告</t>
+          <t>北京市文明行为促进条例</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1962,17 +1962,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>文明行为促进条例</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n444802290</t>
+          <t>http://news.hexun.com/2020-05-15/201349391.html</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>湖南烟草面试技巧浅谈面试哲理故事题的作答思路</t>
+          <t>一起学习沈阳市文明行为促进条例</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1984,39 +1984,39 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>文明行为促进条例</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://3g.k.sohu.com/t/n444804038</t>
+          <t>http://www.yidianzixun.com/article/0PNIbOsm</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>湖南烟草面试技巧人际题目避免套路化的三个作答技能</t>
+          <t>聊城移动开展聊城市文明行为促进条例宣教活动</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（3）</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>文明行为促进条例</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.ebnew.com/businessShow/644890403.html</t>
+          <t>http://3g.k.sohu.com/t/n450588932</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>山西省烟草公司大同市公司招标代理机构更新项目不分标段招标变更公告</t>
+          <t>文明实践北京市文明行为促进条例全文来了月日起施行</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2028,17 +2028,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>文明行为促进条例</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://view.inews.qq.com/a/20200421V0FL3X00</t>
+          <t>http://m1.tt.cn/app/200515104431034.html</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>试问闲愁都几许一川烟草满城风絮梅子黄时雨</t>
+          <t>北京市文明行为促进条例月实施</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2050,39 +2050,39 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>文明行为促进条例</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.zhihu.com/question/389492468/answer/1169950469</t>
+          <t>http://www.yidianzixun.com/article/0PNeDsrW</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>调剂到轻工技术与工程专业读研方向阻燃纸不想去纸厂考公百分九十受限去烟草厂也希望渺茫活着干嘛</t>
+          <t>天津市文明行为促进条例施行一周年树立文明新风尚</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（2）</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>文明行为促进条例</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://cq.tobacco.gov.cn/a/20200422/3addc926-5f01-4876-a2c4-5489afacaaef.html</t>
+          <t>http://www.hebi.gov.cn/zghb/436364/436380/3342222/index.html</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中国烟草总公司重庆市公司永川分公司食堂服务业务外包项目招标公告</t>
+          <t>市人防办发挥资源优势宣传鹤壁市文明行为促进条例</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2094,17 +2094,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>文明行为促进条例</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.eastobacco.com/pub/web/dfycb/202004/t20200422_564747.html</t>
+          <t>http://view.inews.qq.com/a/20200514A0FMUA00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中国烟草总公司山东省公司烟草农业综合标准体系修订版发布</t>
+          <t>关于娄底市文明行为促进条例暂定名立法内容的征集公告</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2116,39 +2116,39 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>烟草业/公司情况</t>
+          <t>文明行为促进条例</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.tobacco.gov.cn/html/49/90055811_n.html</t>
+          <t>http://view.inews.qq.com/a/20200515A03UDA00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中国烟草总公司四川省公司年全省烤房设备维修更换采购项目中标候选人公示</t>
+          <t>长春市文明行为促进条例专家解读来了</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>（1）</t>
+          <t>（3）</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>电子烟</t>
+          <t>文明行为促进条例</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.zhihu.com/question/353238650/answer/1170179986</t>
+          <t>http://www.huaihai.tv/news/hottv/2020-05-14/748596.html</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>关于电子烟大家抽电子烟时间久了会不会感觉到胸闷心脏疼心慌</t>
+          <t>徐州市文明行为促进条例征求意见稿向社会公开征求意见</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2160,572 +2160,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>电子烟</t>
+          <t>2020年立法工作计划</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.iimedia.cn/c1061/70959.html</t>
+          <t>http://3g.k.sohu.com/t/n450713785</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>电子烟行业数据分析年中国用户在选购电子烟时看重口感的占比</t>
+          <t>年度立法工作计划将制定个人信息保护法数据安全法等修改未成年人保护法</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>（1）</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>https://xueqiu.com/4375159485/147492909</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>中国电子烟行业发展现状销售渠道及趋势分析</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>（1）</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>https://www.toutiao.com/a6818080986916454916/</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>网上贩卖的这种上头电子烟竟是新型毒品</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>（2）</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=106847515</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>警惕网上贩卖的这种上头电子烟竟是新类型毒品</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>（10）</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>http://zj.ifeng.com/a/20200422/14195714_0.shtml</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>维刻电子烟奉守健康安全是第一要则</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>（5）</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>https://view.inews.qq.com/a/20200422A072RX00</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>旗下电子烟品牌让一部分人先酷起来</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>（7）</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>https://www.sohu.com/a/389953247_120661638</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>世上唯一全面禁烟的国家电子烟都不让带抽烟被抓到要坐牢</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>（1）</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>https://www.douban.com/group/topic/172474245/</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>电子烟各品牌测评</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>（1）</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>http://3g.k.sohu.com/t/n444622457</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>投资者提问从马桶到电子烟到消毒灯网上销售看起来都乏善可陈不知公司是否</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>（1）</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>https://www.zhihu.com/question/379582018/answer/1170406118</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>什么电子烟比较好</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>（1）</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>https://www.zhihu.com/question/380757758/answer/1170813154</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>网上不能购买电子烟了烟油去哪买</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>（1）</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>https://www.zhihu.com/question/388586962/answer/1168470942</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>有哪些适合女生的电子烟和微商推荐</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>（1）</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>https://www.douban.com/group/topic/172475356/</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>亲测有效电子烟替烟多家品牌测评目前已戒烟</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>（2）</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>https://www.zhihu.com/question/388157140/answer/1170813461</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>现在还有渠道购买电子烟吗</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>（3）</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>https://www.zhihu.com/question/387139663/answer/1169025959</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>你平时会用电子烟吗</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>（1）</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>https://www.zhihu.com/question/388380809/answer/1169047258</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>有没有靠谱电子烟微商呀</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>（1）</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>https://www.zhihu.com/question/381290034/answer/1171476301</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>想卖电子烟不知道什么牌子比较好卖</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>（1）</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>https://www.zhihu.com/question/379050389/answer/1170803008</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>兄弟们我想问一下有什么比较好抽的电子烟可以推荐一下么</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>（2）</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>http://www.xytyn.cn/html/20200421/764944.html</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>东京奥运将全面禁烟包括电子烟场馆内不设吸烟区</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>（1）</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>电子烟</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>https://www.zhihu.com/question/389632407/answer/1171232160</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>请问下电子烟顾客怎么寻找线下线上都行一旦采纳必献红包谢谢各位大佬</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>（1）</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>打击假烟</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>https://www.toutiao.com/a6818357097944580620/</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>姑苏警方捣毁一处假烟销售窝点查获假烟条</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>（3）</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>打击假烟</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>https://view.inews.qq.com/a/20200421A0R26R00</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>中山东升警方速破万元假烟案</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>（2）</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>打击假烟</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>https://view.inews.qq.com/a/20200421V0MCG500</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>小卖铺真香烟离奇变假烟视频拍下头盔男全程掉包计</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>（2）</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>文明行为促进条例</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>http://3g.k.sohu.com/t/n444699119</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>关于征求哈密市文明行为促进条例草案修改意见的公告</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>（1）</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>文明行为促进条例</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>http://mini.eastday.com/a/200422014250011.html</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>九江市文明行为促进条例草案征求意见</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>（1）</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>文明行为促进条例</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>https://tznew.58.com/view/c/sharingDetailNew?infoid=106963623</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>淮阳区公安局开展周口市文明行为促进条例立法问卷调查活动</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>（3）</t>
+          <t>（8）</t>
         </is>
       </c>
     </row>
